--- a/processed/SCHCT_31.03.2025_vendor_list_SBI_Gorhe.xlsx
+++ b/processed/SCHCT_31.03.2025_vendor_list_SBI_Gorhe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sri Tulsi Trust- Tulsi Books ;'./,.';[]</t>
+          <t xml:space="preserve">Sri Tulsi Trust Tulsi Books </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>O|A|Sri Tulsi Trust- Tulsi Books ;'./,.';[]|910010014548454||UTIB0001004|Chowpatty|Chowpatty|India</t>
+          <t>O|A|Sri Tulsi Trust Tulsi Books |910010014548454||UTIB0001004|Chowpatty|Chowpatty|India</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mukund Dhanawade  ;'./,.';[]</t>
+          <t xml:space="preserve">Mukund Dhanawade  </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>O|A|Mukund Dhanawade  ;'./,.';[]|695010085299||KKBK0000638|Mumbai Lower Parel|Mumbai Lower Parel|India</t>
+          <t>O|A|Mukund Dhanawade  |695010085299||KKBK0000638|Mumbai Lower Parel|Mumbai Lower Parel|India</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ranjana  Ravindra Bhoir  ;'./,.';[]</t>
+          <t xml:space="preserve">Ranjana  Ravindra Bhoir  </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>O|A|Ranjana  Ravindra Bhoir  ;'./,.';[]|55605007149||MAHG0005605|Alonde|Alonde|India</t>
+          <t>O|A|Ranjana  Ravindra Bhoir  |55605007149||MAHG0005605|Alonde|Alonde|India</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bhagirath Electricals &amp; Borewell Bhagirath Electricals &amp; Borewell Bhagirath Electricals &amp; Borewell</t>
+          <t>Bhagirath Electricals  Borewel</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>O|A|Bhagirath Electricals &amp; Borewell Bhagirath Electricals &amp; Borewell Bhagirath Electricals &amp; Borewell|60056433432||MAHB0000429|Vikramgad|Vikramgad|India</t>
+          <t>O|A|Bhagirath Electricals  Borewel|60056433432||MAHB0000429|Vikramgad|Vikramgad|India</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kore Mining &amp; Crushing Pvt Ltd</t>
+          <t>Kore Mining  Crushing Pvt Ltd</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>O|A|Kore Mining &amp; Crushing Pvt Ltd|396100100001108||SRCB0000396|Boisar|Boisar|India</t>
+          <t>O|A|Kore Mining  Crushing Pvt Ltd|396100100001108||SRCB0000396|Boisar|Boisar|India</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Vijay Hardware Stores  ;'./,.';[]</t>
+          <t xml:space="preserve">Vijay Hardware Stores  </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>O|A|Vijay Hardware Stores  ;'./,.';[]|50200098814777||HDFC0007179|Manor|Manor|India</t>
+          <t>O|A|Vijay Hardware Stores  |50200098814777||HDFC0007179|Manor|Manor|India</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bharat Xerox And Stationary  ;'./,.';[]</t>
+          <t xml:space="preserve">Bharat Xerox And Stationary  </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>S|A|Bharat Xerox And Stationary  ;'./,.';[]|38166911649||SBIN0001050|Jawhar |Jawhar |India</t>
+          <t>S|A|Bharat Xerox And Stationary  |38166911649||SBIN0001050|Jawhar |Jawhar |India</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ankush Yadav  ;'./,.';[]</t>
+          <t xml:space="preserve">Ankush Yadav  </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1517,29 +1517,323 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>O|A|Ankush Yadav  ;'./,.';[]|681518110001008||BKID0006815|Subhanikheda|Subhanikheda|India</t>
+          <t>O|A|Ankush Yadav  |681518110001008||BKID0006815|Subhanikheda|Subhanikheda|India</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>404985</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>O|A|nan|nan||nan|nan|nan|India</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>O|A|nan|nan||nan|nan|nan|India</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>O|A|nan|nan||nan|nan|nan|India</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>O|A|nan|nan||nan|nan|nan|India</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>O|A|nan|nan||nan|nan|nan|India</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>O|A|nan|nan||nan|nan|nan|India</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>O|A|nan|  ||nan|nan|nan|India</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>404985</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/processed/SCHCT_31.03.2025_vendor_list_SBI_Gorhe.xlsx
+++ b/processed/SCHCT_31.03.2025_vendor_list_SBI_Gorhe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1522,318 +1522,24 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>404985</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>O|A|nan|nan||nan|nan|nan|India</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>O|A|nan|nan||nan|nan|nan|India</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>O|A|nan|nan||nan|nan|nan|India</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>O|A|nan|nan||nan|nan|nan|India</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>O|A|nan|nan||nan|nan|nan|India</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>O|A|nan|nan||nan|nan|nan|India</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>  </t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>O|A|nan|  ||nan|nan|nan|India</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>404985</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
